--- a/Michigan Offers.xlsx
+++ b/Michigan Offers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="460" windowWidth="18860" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="9940" yWindow="460" windowWidth="18860" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="749">
   <si>
     <t>Rashan Gary</t>
   </si>
@@ -627,9 +627,6 @@
     <t>Erroll Thompson</t>
   </si>
   <si>
-    <t>Eddie McDoon</t>
-  </si>
-  <si>
     <t>Michael Irvin Jr.</t>
   </si>
   <si>
@@ -2059,6 +2056,225 @@
   </si>
   <si>
     <t>demetricfelton7</t>
+  </si>
+  <si>
+    <t>edoom01</t>
+  </si>
+  <si>
+    <t>Eddie McDoom</t>
+  </si>
+  <si>
+    <t>youngpie_1</t>
+  </si>
+  <si>
+    <t>mcforristall</t>
+  </si>
+  <si>
+    <t>NeverDone_21</t>
+  </si>
+  <si>
+    <t>jayvaughn_myers</t>
+  </si>
+  <si>
+    <t>jvalentin57</t>
+  </si>
+  <si>
+    <t>Im3Fly</t>
+  </si>
+  <si>
+    <t>RomeoFinley1</t>
+  </si>
+  <si>
+    <t>Thaddeusmoss</t>
+  </si>
+  <si>
+    <t>bundage27</t>
+  </si>
+  <si>
+    <t>chrissoo_valid</t>
+  </si>
+  <si>
+    <t>VicViramontes10</t>
+  </si>
+  <si>
+    <t>willfries55</t>
+  </si>
+  <si>
+    <t>jack_wohlabaugh</t>
+  </si>
+  <si>
+    <t>mfalcon21</t>
+  </si>
+  <si>
+    <t>KinG_QuaY_23</t>
+  </si>
+  <si>
+    <t>boyd_rakeem</t>
+  </si>
+  <si>
+    <t>isaiahsimmons25</t>
+  </si>
+  <si>
+    <t>KingCaarlos</t>
+  </si>
+  <si>
+    <t>NoFlyZone_2016</t>
+  </si>
+  <si>
+    <t>AmbitiousQ15</t>
+  </si>
+  <si>
+    <t>VelusJr</t>
+  </si>
+  <si>
+    <t>Flaamingoo_</t>
+  </si>
+  <si>
+    <t> jordantc80</t>
+  </si>
+  <si>
+    <t>Bcg_34</t>
+  </si>
+  <si>
+    <t>MykelleMcDaniel</t>
+  </si>
+  <si>
+    <t>KingBulu</t>
+  </si>
+  <si>
+    <t>jdspielman10</t>
+  </si>
+  <si>
+    <t>Black___Jesus7</t>
+  </si>
+  <si>
+    <t>swervinirvin_</t>
+  </si>
+  <si>
+    <t>Dr_ChaseAllen</t>
+  </si>
+  <si>
+    <t>TonyKnows2</t>
+  </si>
+  <si>
+    <t>BlakelyJay</t>
+  </si>
+  <si>
+    <t>Kenis_12</t>
+  </si>
+  <si>
+    <t>12221Jon</t>
+  </si>
+  <si>
+    <t>rileyanderson44</t>
+  </si>
+  <si>
+    <t>natedog0202</t>
+  </si>
+  <si>
+    <t>Tdye15dbTroy</t>
+  </si>
+  <si>
+    <t>KevinStepherson</t>
+  </si>
+  <si>
+    <t>MGilbert_3</t>
+  </si>
+  <si>
+    <t> ayeeepee</t>
+  </si>
+  <si>
+    <t>evanhinson07</t>
+  </si>
+  <si>
+    <t>toksakinribade</t>
+  </si>
+  <si>
+    <t>M_Irvin17</t>
+  </si>
+  <si>
+    <t>_DevanteBrooks</t>
+  </si>
+  <si>
+    <t>jackdefoor54</t>
+  </si>
+  <si>
+    <t>___almightysir</t>
+  </si>
+  <si>
+    <t>Donald_Stewart8</t>
+  </si>
+  <si>
+    <t>QuinnNordin</t>
+  </si>
+  <si>
+    <t>christian_tyla</t>
+  </si>
+  <si>
+    <t>Uche_Josh20</t>
+  </si>
+  <si>
+    <t>dele_harding</t>
+  </si>
+  <si>
+    <t>Big_Spanellis78</t>
+  </si>
+  <si>
+    <t> _JamesV_</t>
+  </si>
+  <si>
+    <t>NoExcuses_23</t>
+  </si>
+  <si>
+    <t>cameronkolwich</t>
+  </si>
+  <si>
+    <t>RegimeJay</t>
+  </si>
+  <si>
+    <t>TopeImade</t>
+  </si>
+  <si>
+    <t>__KB7</t>
+  </si>
+  <si>
+    <t>_glorygang85</t>
+  </si>
+  <si>
+    <t>Mckeon_Sean</t>
+  </si>
+  <si>
+    <t>DDuvernay28</t>
+  </si>
+  <si>
+    <t>Antwaine_09</t>
+  </si>
+  <si>
+    <t>PeytonAucoin1</t>
+  </si>
+  <si>
+    <t>mike_dwumfour</t>
+  </si>
+  <si>
+    <t>RDubb_5</t>
+  </si>
+  <si>
+    <t>devin_gil</t>
+  </si>
+  <si>
+    <t>ISTHAT_DAEDAE</t>
+  </si>
+  <si>
+    <t>_TerrellLucas</t>
+  </si>
+  <si>
+    <t>Tyrus_99</t>
+  </si>
+  <si>
+    <t>5cade</t>
+  </si>
+  <si>
+    <t>itsme_bmagee</t>
   </si>
 </sst>
 </file>
@@ -2386,13 +2602,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2403,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2414,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2425,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2436,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2447,7 +2664,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2458,7 +2675,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2469,7 +2686,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2480,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2491,7 +2708,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2502,7 +2719,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2513,7 +2730,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2524,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2535,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2546,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,7 +2774,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,7 +2785,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2579,7 +2796,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2590,7 +2807,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2601,7 +2818,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2612,7 +2829,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2623,7 +2840,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2634,7 +2851,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2645,7 +2862,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2656,7 +2873,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2667,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2678,7 +2895,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,7 +2906,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2700,7 +2917,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2711,7 +2928,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2722,7 +2939,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2733,7 +2950,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2744,7 +2961,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,7 +2972,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2766,7 +2983,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2785,7 +3002,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2796,7 +3013,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2807,7 +3024,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2826,7 +3043,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2837,7 +3054,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2848,7 +3065,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2859,7 +3076,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2870,7 +3087,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2881,7 +3098,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2892,7 +3109,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2903,7 +3120,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2914,7 +3131,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2925,7 +3142,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2936,7 +3153,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2947,7 +3164,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2958,7 +3175,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2969,7 +3186,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2980,7 +3197,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2991,7 +3208,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3002,7 +3219,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3013,7 +3230,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3024,7 +3241,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3035,7 +3252,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3046,7 +3263,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3057,7 +3274,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3068,7 +3285,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3087,7 +3304,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3098,7 +3315,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3109,7 +3326,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3120,7 +3337,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3131,7 +3348,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3142,7 +3359,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3153,7 +3370,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3164,7 +3381,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3175,7 +3392,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3186,7 +3403,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3205,7 +3422,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3216,7 +3433,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3227,7 +3444,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3238,7 +3455,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3249,7 +3466,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3260,7 +3477,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3271,7 +3488,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3282,7 +3499,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -3293,7 +3510,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -3304,7 +3521,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3315,7 +3532,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -3326,7 +3543,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -3337,7 +3554,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -3348,7 +3565,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3359,7 +3576,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -3370,7 +3587,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -3390,7 +3607,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -3401,7 +3618,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -3412,7 +3629,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -3423,7 +3640,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -3434,7 +3651,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -3445,7 +3662,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3456,7 +3673,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3467,7 +3684,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3478,7 +3695,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3489,7 +3706,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3500,7 +3717,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3511,7 +3728,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3522,7 +3739,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -3533,7 +3750,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -3544,7 +3761,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -3555,7 +3772,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -3566,7 +3783,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -3577,7 +3794,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -3588,7 +3805,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -3599,7 +3816,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -3610,7 +3827,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3621,7 +3838,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3632,7 +3849,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3643,7 +3860,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -3654,7 +3871,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -3674,7 +3891,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3685,7 +3902,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,7 +3921,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -3715,7 +3932,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,7 +3943,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3737,7 +3954,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,7 +3965,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,7 +3976,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3778,7 +3995,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3789,7 +4006,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3800,7 +4017,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3811,7 +4028,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3830,7 +4047,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3841,7 +4058,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -3852,7 +4069,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3863,7 +4080,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3874,7 +4091,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3885,7 +4102,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -3896,7 +4113,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -3915,7 +4132,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -3926,7 +4143,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -3937,7 +4154,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -3948,7 +4165,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3959,7 +4176,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3970,7 +4187,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3981,7 +4198,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -3992,7 +4209,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -4003,7 +4220,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -4014,7 +4231,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -4046,7 +4263,10 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>199</v>
+        <v>677</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -4056,6 +4276,9 @@
       <c r="B155" t="s">
         <v>153</v>
       </c>
+      <c r="C155" s="1" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
@@ -4064,6 +4287,9 @@
       <c r="B156" t="s">
         <v>154</v>
       </c>
+      <c r="C156" s="1" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
@@ -4072,6 +4298,9 @@
       <c r="B157" t="s">
         <v>155</v>
       </c>
+      <c r="C157" s="1" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
@@ -4080,6 +4309,9 @@
       <c r="B158" t="s">
         <v>156</v>
       </c>
+      <c r="C158" s="1" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
@@ -4088,6 +4320,9 @@
       <c r="B159" t="s">
         <v>157</v>
       </c>
+      <c r="C159" s="1" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
@@ -4096,24 +4331,33 @@
       <c r="B160" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>161</v>
       </c>
       <c r="B161" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>162</v>
       </c>
       <c r="B162" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>163</v>
       </c>
@@ -4121,119 +4365,161 @@
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>164</v>
       </c>
       <c r="B164" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>165</v>
       </c>
       <c r="B165" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>166</v>
       </c>
       <c r="B166" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>167</v>
       </c>
       <c r="B167" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>168</v>
       </c>
       <c r="B168" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>169</v>
       </c>
       <c r="B169" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>170</v>
       </c>
       <c r="B170" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>171</v>
       </c>
       <c r="B171" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>172</v>
       </c>
       <c r="B172" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>173</v>
       </c>
       <c r="B173" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>174</v>
       </c>
       <c r="B174" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>175</v>
       </c>
       <c r="B175" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>176</v>
       </c>
       <c r="B176" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>177</v>
       </c>
       <c r="B177" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>178</v>
       </c>
@@ -4241,63 +4527,84 @@
         <v>173</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>179</v>
       </c>
       <c r="B179" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>180</v>
       </c>
       <c r="B180" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>181</v>
       </c>
       <c r="B181" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>182</v>
       </c>
       <c r="B182" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>183</v>
       </c>
       <c r="B183" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>184</v>
       </c>
       <c r="B184" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>185</v>
       </c>
       <c r="B185" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>186</v>
       </c>
@@ -4305,380 +4612,507 @@
         <v>181</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>187</v>
       </c>
       <c r="B187" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>188</v>
       </c>
       <c r="B188" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>189</v>
       </c>
       <c r="B189" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>190</v>
       </c>
       <c r="B190" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>191</v>
       </c>
       <c r="B191" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>192</v>
       </c>
       <c r="B192" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>193</v>
       </c>
       <c r="B193" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>194</v>
       </c>
       <c r="B194" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>195</v>
       </c>
       <c r="B195" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>196</v>
       </c>
       <c r="B196" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>197</v>
       </c>
       <c r="B197" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>198</v>
       </c>
       <c r="B198" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>199</v>
       </c>
       <c r="B199" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>200</v>
       </c>
       <c r="B200" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -4823,6 +5257,78 @@
     <hyperlink ref="C148" r:id="rId138"/>
     <hyperlink ref="C149" r:id="rId139" tooltip="‎@ChanseSylvie on Twitter"/>
     <hyperlink ref="C150" r:id="rId140" tooltip="‎@demetricfelton7 on Twitter"/>
+    <hyperlink ref="C154" r:id="rId141"/>
+    <hyperlink ref="C155" r:id="rId142" tooltip="‎@youngpie_1 on Twitter"/>
+    <hyperlink ref="C156" r:id="rId143" tooltip="‎@mcforristall on Twitter"/>
+    <hyperlink ref="C157" r:id="rId144"/>
+    <hyperlink ref="C159" r:id="rId145" tooltip="‎@jayvaughn_myers on Twitter"/>
+    <hyperlink ref="C158" r:id="rId146"/>
+    <hyperlink ref="C160" r:id="rId147" tooltip="‎@Im3Fly on Twitter"/>
+    <hyperlink ref="C161" r:id="rId148" tooltip="‎@RomeoFinley1 on Twitter"/>
+    <hyperlink ref="C162" r:id="rId149" tooltip="‎@Thaddeusmoss on Twitter"/>
+    <hyperlink ref="C164" r:id="rId150"/>
+    <hyperlink ref="C165" r:id="rId151" tooltip="‎@chrissoo_valid on Twitter"/>
+    <hyperlink ref="C166" r:id="rId152" tooltip="‎@VicViramontes10 on Twitter"/>
+    <hyperlink ref="C167" r:id="rId153" tooltip="‎@willfries55 on Twitter"/>
+    <hyperlink ref="C168" r:id="rId154"/>
+    <hyperlink ref="C169" r:id="rId155" tooltip="‎@mfalcon21 on Twitter"/>
+    <hyperlink ref="C170" r:id="rId156" tooltip="‎@KinG_QuaY_23 on Twitter"/>
+    <hyperlink ref="C171" r:id="rId157" tooltip="‎@boyd_rakeem on Twitter"/>
+    <hyperlink ref="C172" r:id="rId158" tooltip="‎@isaiahsimmons25 on Twitter"/>
+    <hyperlink ref="C173" r:id="rId159" tooltip="‎@KingCaarlos on Twitter"/>
+    <hyperlink ref="C174" r:id="rId160" tooltip="‎@NoFlyZone_2016 on Twitter"/>
+    <hyperlink ref="C175" r:id="rId161" tooltip="‎@AmbitiousQ15 on Twitter"/>
+    <hyperlink ref="C176" r:id="rId162" tooltip="‎@VelusJr on Twitter"/>
+    <hyperlink ref="C177" r:id="rId163" tooltip="‎@Flaamingoo_ on Twitter"/>
+    <hyperlink ref="C179" r:id="rId164"/>
+    <hyperlink ref="C180" r:id="rId165"/>
+    <hyperlink ref="C181" r:id="rId166" tooltip="‎@MykelleMcDaniel on Twitter"/>
+    <hyperlink ref="C182" r:id="rId167" tooltip="‎@KingBulu on Twitter"/>
+    <hyperlink ref="C183" r:id="rId168" tooltip="‎@jdspielman10 on Twitter"/>
+    <hyperlink ref="C184" r:id="rId169"/>
+    <hyperlink ref="C185" r:id="rId170" tooltip="‎@swervinirvin_ on Twitter"/>
+    <hyperlink ref="C187" r:id="rId171" tooltip="‎@Dr_ChaseAllen on Twitter"/>
+    <hyperlink ref="C188" r:id="rId172" tooltip="‎@TonyKnows2 on Twitter"/>
+    <hyperlink ref="C189" r:id="rId173"/>
+    <hyperlink ref="C190" r:id="rId174"/>
+    <hyperlink ref="C191" r:id="rId175" display=" 12221Jon"/>
+    <hyperlink ref="C193" r:id="rId176" tooltip="‎@rileyanderson44 on Twitter"/>
+    <hyperlink ref="C194" r:id="rId177" tooltip="‎@natedog0202 on Twitter"/>
+    <hyperlink ref="C195" r:id="rId178" tooltip="‎@Tdye15dbTroy on Twitter"/>
+    <hyperlink ref="C196" r:id="rId179" tooltip="‎@KevinStepherson on Twitter"/>
+    <hyperlink ref="C197" r:id="rId180" tooltip="‎@MGilbert_3 on Twitter"/>
+    <hyperlink ref="C198" r:id="rId181"/>
+    <hyperlink ref="C199" r:id="rId182" tooltip="‎@evanhinson07 on Twitter"/>
+    <hyperlink ref="C200" r:id="rId183" tooltip="‎@toksakinribade on Twitter"/>
+    <hyperlink ref="C201" r:id="rId184" tooltip="‎@M_Irvin17 on Twitter"/>
+    <hyperlink ref="C202" r:id="rId185" tooltip="‎@_DevanteBrooks on Twitter"/>
+    <hyperlink ref="C203" r:id="rId186" tooltip="‎@jackdefoor54 on Twitter"/>
+    <hyperlink ref="C204" r:id="rId187"/>
+    <hyperlink ref="C205" r:id="rId188" tooltip="‎@Donald_Stewart8 on Twitter"/>
+    <hyperlink ref="C206" r:id="rId189" tooltip="‎@QuinnNordin on Twitter"/>
+    <hyperlink ref="C207" r:id="rId190" tooltip="‎@christian_tyla on Twitter"/>
+    <hyperlink ref="C208" r:id="rId191"/>
+    <hyperlink ref="C209" r:id="rId192" tooltip="‎@dele_harding on Twitter"/>
+    <hyperlink ref="C212" r:id="rId193" tooltip="‎@Big_Spanellis78 on Twitter"/>
+    <hyperlink ref="C218" r:id="rId194"/>
+    <hyperlink ref="C213" r:id="rId195" tooltip="‎@NoExcuses_23 on Twitter"/>
+    <hyperlink ref="C214" r:id="rId196"/>
+    <hyperlink ref="C215" r:id="rId197"/>
+    <hyperlink ref="C216" r:id="rId198" tooltip="‎@TopeImade on Twitter"/>
+    <hyperlink ref="C217" r:id="rId199" tooltip="‎@__KB7 on Twitter"/>
+    <hyperlink ref="C219" r:id="rId200" tooltip="‎@_glorygang85 on Twitter"/>
+    <hyperlink ref="C220" r:id="rId201" tooltip="‎@Mckeon_Sean on Twitter"/>
+    <hyperlink ref="C221" r:id="rId202" tooltip="‎@DDuvernay28 on Twitter"/>
+    <hyperlink ref="C222" r:id="rId203"/>
+    <hyperlink ref="C223" r:id="rId204" tooltip="‎@PeytonAucoin1 on Twitter"/>
+    <hyperlink ref="C224" r:id="rId205"/>
+    <hyperlink ref="C225" r:id="rId206"/>
+    <hyperlink ref="C226" r:id="rId207" tooltip="‎@devin_gil on Twitter"/>
+    <hyperlink ref="C227" r:id="rId208" tooltip="‎@ISTHAT_DAEDAE on Twitter" display="STHAT_DAEDAE"/>
+    <hyperlink ref="C230" r:id="rId209" tooltip="‎@_TerrellLucas on Twitter"/>
+    <hyperlink ref="C231" r:id="rId210"/>
+    <hyperlink ref="C232" r:id="rId211" tooltip="‎@5cade on Twitter"/>
+    <hyperlink ref="C233" r:id="rId212" tooltip="‎@itsme_bmagee on Twitter"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4843,1157 +5349,1157 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
@@ -6003,372 +6509,372 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
